--- a/case/api_test.xlsx
+++ b/case/api_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>run</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>save</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>登录接口</t>
@@ -57,12 +60,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,12 +80,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -101,14 +98,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,15 +118,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +164,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,6 +185,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -190,38 +209,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,25 +245,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,61 +383,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,79 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +440,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,22 +464,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,17 +491,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,159 +529,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,7 +1003,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1046,17 +1040,17 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/case/api_test.xlsx
+++ b/case/api_test.xlsx
@@ -55,7 +55,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>username=admin&amp;password=e10adc3949ba59abbe56e057f20f883e&amp;validate=7&amp;</t>
+    <t>{"username":"admin","password":"e10adc3949ba59abbe56e057f20f883e&amp;validate"}</t>
   </si>
 </sst>
 </file>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,7 +84,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,25 +198,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,83 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,25 +236,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,31 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,13 +368,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,103 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +434,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +450,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,23 +487,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,148 +532,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/case/api_test.xlsx
+++ b/case/api_test.xlsx
@@ -55,7 +55,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>{"username":"admin","password":"e10adc3949ba59abbe56e057f20f883e&amp;validate"}</t>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -64,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -90,31 +90,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,9 +113,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,36 +169,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,8 +182,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +199,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,21 +222,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,13 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,163 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,227 +527,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,6 +1010,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">

--- a/case/api_test.xlsx
+++ b/case/api_test.xlsx
@@ -55,7 +55,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>username=admin&amp;password=e10adc3949ba59abbe56e057f20f883e&amp;validate=5&amp;</t>
   </si>
 </sst>
 </file>
@@ -63,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,14 +84,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,123 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,25 +236,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,31 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,121 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,8 +433,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,7 +443,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,17 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -503,177 +527,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/case/api_test.xlsx
+++ b/case/api_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>run</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>username=admin&amp;password=e10adc3949ba59abbe56e057f20f883e&amp;validate=5&amp;</t>
+  </si>
+  <si>
+    <t>请求成功</t>
+  </si>
+  <si>
+    <t>cookie</t>
   </si>
 </sst>
 </file>
@@ -65,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,15 +90,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +114,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,8 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,6 +149,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -135,17 +179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,35 +196,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -190,22 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +218,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,103 +248,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,73 +398,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,8 +439,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,6 +450,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +478,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -474,26 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,168 +533,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,7 +1017,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="68.25" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1045,7 +1052,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1060,6 +1067,15 @@
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
